--- a/branches/master/StructureDefinition-questionnaire-s37.xlsx
+++ b/branches/master/StructureDefinition-questionnaire-s37.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="467">
   <si>
     <t>Property</t>
   </si>
@@ -539,6 +539,9 @@
   </si>
   <si>
     <t>There may be different questionnaire instances that have the same identifier but different versions.  The version can be appended to the url in a reference to allow a reference to a particular business version of the questionnaire with the format [url]|[version].</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Definition.version</t>
@@ -3336,7 +3339,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>83</v>
@@ -3371,7 +3374,7 @@
         <v>77</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>77</v>
@@ -3425,13 +3428,13 @@
         <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3442,7 +3445,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3468,16 +3471,16 @@
         <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>77</v>
@@ -3526,7 +3529,7 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -3535,7 +3538,7 @@
         <v>83</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>95</v>
@@ -3558,7 +3561,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3584,13 +3587,13 @@
         <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3640,7 +3643,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3655,10 +3658,10 @@
         <v>95</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
@@ -3672,7 +3675,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3695,17 +3698,17 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>77</v>
@@ -3754,7 +3757,7 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3769,10 +3772,10 @@
         <v>95</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
@@ -3786,7 +3789,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3812,13 +3815,13 @@
         <v>103</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3844,13 +3847,13 @@
         <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>77</v>
@@ -3868,7 +3871,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>83</v>
@@ -3883,13 +3886,13 @@
         <v>95</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3900,7 +3903,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3923,19 +3926,19 @@
         <v>84</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>77</v>
@@ -3984,7 +3987,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3999,13 +4002,13 @@
         <v>95</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>126</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -4016,7 +4019,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4042,13 +4045,13 @@
         <v>103</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4074,13 +4077,13 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -4098,7 +4101,7 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -4113,10 +4116,10 @@
         <v>95</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -4130,11 +4133,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4153,16 +4156,16 @@
         <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4212,7 +4215,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -4227,13 +4230,13 @@
         <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -4244,7 +4247,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4270,16 +4273,16 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -4328,7 +4331,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4343,13 +4346,13 @@
         <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4360,7 +4363,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4383,16 +4386,16 @@
         <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4442,7 +4445,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4457,10 +4460,10 @@
         <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4474,7 +4477,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4497,16 +4500,16 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4556,7 +4559,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4571,10 +4574,10 @@
         <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4588,7 +4591,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4611,19 +4614,19 @@
         <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4672,7 +4675,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4687,10 +4690,10 @@
         <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4704,7 +4707,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4727,16 +4730,16 @@
         <v>84</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4762,13 +4765,13 @@
         <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>77</v>
@@ -4786,7 +4789,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4801,10 +4804,10 @@
         <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4818,7 +4821,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4841,16 +4844,16 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4900,7 +4903,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4915,13 +4918,13 @@
         <v>95</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>163</v>
@@ -4932,11 +4935,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4955,17 +4958,17 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5014,7 +5017,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -5029,10 +5032,10 @@
         <v>95</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5046,7 +5049,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5069,16 +5072,16 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5128,7 +5131,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -5143,10 +5146,10 @@
         <v>95</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -5160,7 +5163,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5183,19 +5186,19 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5244,7 +5247,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5259,10 +5262,10 @@
         <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -5276,7 +5279,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5299,19 +5302,19 @@
         <v>84</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5360,7 +5363,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5375,10 +5378,10 @@
         <v>95</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -5392,7 +5395,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5415,17 +5418,17 @@
         <v>84</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5450,13 +5453,13 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
@@ -5474,7 +5477,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5492,7 +5495,7 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5506,7 +5509,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5529,16 +5532,16 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5588,7 +5591,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5597,16 +5600,16 @@
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -5620,7 +5623,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5646,10 +5649,10 @@
         <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5700,7 +5703,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5718,7 +5721,7 @@
         <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -5732,7 +5735,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5810,7 +5813,7 @@
         <v>132</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5842,10 +5845,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>77</v>
@@ -5867,13 +5870,13 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5924,7 +5927,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5956,11 +5959,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5982,10 +5985,10 @@
         <v>128</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>144</v>
@@ -6040,7 +6043,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -6072,7 +6075,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6098,16 +6101,16 @@
         <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>77</v>
@@ -6156,7 +6159,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>83</v>
@@ -6174,7 +6177,7 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6188,7 +6191,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6214,16 +6217,16 @@
         <v>97</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6272,7 +6275,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6290,7 +6293,7 @@
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6304,7 +6307,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6327,19 +6330,19 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6364,13 +6367,13 @@
         <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -6388,7 +6391,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6397,7 +6400,7 @@
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>95</v>
@@ -6406,7 +6409,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6420,11 +6423,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6446,16 +6449,16 @@
         <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>77</v>
@@ -6504,7 +6507,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6522,7 +6525,7 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6536,7 +6539,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6562,13 +6565,13 @@
         <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6618,7 +6621,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6636,7 +6639,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6650,7 +6653,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6676,16 +6679,16 @@
         <v>103</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>77</v>
@@ -6710,13 +6713,13 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
@@ -6734,7 +6737,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>83</v>
@@ -6752,7 +6755,7 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6766,7 +6769,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6789,19 +6792,19 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -6850,7 +6853,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6862,13 +6865,13 @@
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6882,7 +6885,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6908,10 +6911,10 @@
         <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6962,7 +6965,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6980,7 +6983,7 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -6994,7 +6997,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7020,10 +7023,10 @@
         <v>128</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>144</v>
@@ -7076,7 +7079,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -7094,7 +7097,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7108,11 +7111,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7134,10 +7137,10 @@
         <v>128</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>144</v>
@@ -7192,7 +7195,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -7224,7 +7227,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7250,13 +7253,13 @@
         <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7306,7 +7309,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>83</v>
@@ -7324,7 +7327,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7338,7 +7341,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7364,10 +7367,10 @@
         <v>103</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7394,13 +7397,13 @@
         <v>77</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -7418,7 +7421,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>83</v>
@@ -7436,7 +7439,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7450,7 +7453,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7473,13 +7476,13 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7506,13 +7509,13 @@
         <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7530,7 +7533,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>83</v>
@@ -7539,7 +7542,7 @@
         <v>83</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>95</v>
@@ -7548,7 +7551,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7562,7 +7565,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7588,13 +7591,13 @@
         <v>103</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7620,13 +7623,13 @@
         <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
@@ -7644,7 +7647,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7653,7 +7656,7 @@
         <v>83</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>95</v>
@@ -7662,7 +7665,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7676,7 +7679,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7699,23 +7702,23 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q52" t="s" s="2">
         <v>77</v>
@@ -7760,7 +7763,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7769,7 +7772,7 @@
         <v>83</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>95</v>
@@ -7778,7 +7781,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7792,7 +7795,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7815,79 +7818,79 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P53" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="Q53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE53" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P53" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="Q53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE53" t="s" s="2">
+      <c r="AF53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH53" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>95</v>
@@ -7896,7 +7899,7 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -7910,7 +7913,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7933,19 +7936,19 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -7994,7 +7997,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -8003,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>95</v>
@@ -8012,7 +8015,7 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8026,7 +8029,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8049,16 +8052,16 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8108,7 +8111,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -8117,7 +8120,7 @@
         <v>83</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>95</v>
@@ -8126,7 +8129,7 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8140,7 +8143,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8163,16 +8166,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8222,7 +8225,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -8231,7 +8234,7 @@
         <v>83</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>95</v>
@@ -8240,7 +8243,7 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8254,7 +8257,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8277,16 +8280,16 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8336,7 +8339,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -8345,7 +8348,7 @@
         <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>95</v>
@@ -8354,7 +8357,7 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8368,7 +8371,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8394,10 +8397,10 @@
         <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8448,7 +8451,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8466,7 +8469,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8480,7 +8483,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8506,10 +8509,10 @@
         <v>128</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>144</v>
@@ -8562,7 +8565,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -8580,7 +8583,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8594,11 +8597,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8620,10 +8623,10 @@
         <v>128</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>144</v>
@@ -8678,7 +8681,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8710,7 +8713,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8733,16 +8736,16 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8768,13 +8771,13 @@
         <v>77</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -8792,7 +8795,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>83</v>
@@ -8810,7 +8813,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8824,7 +8827,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8847,23 +8850,23 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P62" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q62" t="s" s="2">
         <v>77</v>
@@ -8908,7 +8911,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -8926,7 +8929,7 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -8940,7 +8943,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8963,19 +8966,19 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>77</v>
@@ -9024,7 +9027,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -9033,7 +9036,7 @@
         <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>95</v>
@@ -9042,7 +9045,7 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9056,7 +9059,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9082,10 +9085,10 @@
         <v>85</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9136,7 +9139,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -9154,7 +9157,7 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9194,10 +9197,10 @@
         <v>128</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>144</v>
@@ -9250,7 +9253,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -9268,7 +9271,7 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9282,11 +9285,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9308,10 +9311,10 @@
         <v>128</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>144</v>
@@ -9366,7 +9369,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -9398,7 +9401,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9421,16 +9424,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9456,13 +9459,13 @@
         <v>77</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>77</v>
@@ -9480,7 +9483,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>83</v>
@@ -9498,7 +9501,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9512,7 +9515,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9538,16 +9541,16 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -9596,7 +9599,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -9605,7 +9608,7 @@
         <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>95</v>
@@ -9614,7 +9617,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>

--- a/branches/master/StructureDefinition-questionnaire-s37.xlsx
+++ b/branches/master/StructureDefinition-questionnaire-s37.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="466">
   <si>
     <t>Property</t>
   </si>
@@ -539,9 +539,6 @@
   </si>
   <si>
     <t>There may be different questionnaire instances that have the same identifier but different versions.  The version can be appended to the url in a reference to allow a reference to a particular business version of the questionnaire with the format [url]|[version].</t>
-  </si>
-  <si>
-    <t>1.0.0</t>
   </si>
   <si>
     <t>Definition.version</t>
@@ -3339,7 +3336,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>83</v>
@@ -3374,7 +3371,7 @@
         <v>77</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>77</v>
@@ -3428,13 +3425,13 @@
         <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3445,7 +3442,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3471,16 +3468,16 @@
         <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>77</v>
@@ -3529,7 +3526,7 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -3538,7 +3535,7 @@
         <v>83</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>95</v>
@@ -3561,7 +3558,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3587,13 +3584,13 @@
         <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3643,7 +3640,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3658,10 +3655,10 @@
         <v>95</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
@@ -3675,7 +3672,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3698,17 +3695,17 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>77</v>
@@ -3757,7 +3754,7 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3772,10 +3769,10 @@
         <v>95</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
@@ -3789,7 +3786,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3815,13 +3812,13 @@
         <v>103</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3847,14 +3844,14 @@
         <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="X18" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="X18" t="s" s="2">
+      <c r="Y18" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Y18" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="Z18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3871,7 +3868,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>83</v>
@@ -3886,13 +3883,13 @@
         <v>95</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3903,7 +3900,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3926,19 +3923,19 @@
         <v>84</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>77</v>
@@ -3987,7 +3984,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -4002,13 +3999,13 @@
         <v>95</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>126</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -4019,7 +4016,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4045,13 +4042,13 @@
         <v>103</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4077,14 +4074,14 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="Y20" t="s" s="2">
-        <v>213</v>
-      </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4101,7 +4098,7 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -4116,10 +4113,10 @@
         <v>95</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -4133,11 +4130,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4156,16 +4153,16 @@
         <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4215,7 +4212,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -4230,13 +4227,13 @@
         <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -4247,7 +4244,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4273,16 +4270,16 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -4331,7 +4328,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4346,13 +4343,13 @@
         <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4363,7 +4360,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4386,16 +4383,16 @@
         <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4445,7 +4442,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4460,10 +4457,10 @@
         <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4477,7 +4474,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4500,16 +4497,16 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4559,7 +4556,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4574,10 +4571,10 @@
         <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4591,7 +4588,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4614,19 +4611,19 @@
         <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4675,7 +4672,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4690,10 +4687,10 @@
         <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4707,7 +4704,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4730,16 +4727,16 @@
         <v>84</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4765,14 +4762,14 @@
         <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="X26" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="X26" t="s" s="2">
+      <c r="Y26" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>261</v>
-      </c>
       <c r="Z26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4789,7 +4786,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4804,10 +4801,10 @@
         <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4821,7 +4818,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4844,16 +4841,16 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4903,7 +4900,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4918,13 +4915,13 @@
         <v>95</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>163</v>
@@ -4935,11 +4932,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4958,17 +4955,17 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5017,7 +5014,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -5032,10 +5029,10 @@
         <v>95</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5049,7 +5046,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5072,16 +5069,16 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5131,7 +5128,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -5146,10 +5143,10 @@
         <v>95</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -5163,7 +5160,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5186,19 +5183,19 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5247,7 +5244,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5262,10 +5259,10 @@
         <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -5279,7 +5276,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5302,19 +5299,19 @@
         <v>84</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5363,7 +5360,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5378,10 +5375,10 @@
         <v>95</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -5395,7 +5392,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5418,17 +5415,17 @@
         <v>84</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5453,14 +5450,14 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="X32" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="X32" t="s" s="2">
+      <c r="Y32" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>304</v>
-      </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5477,7 +5474,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5495,7 +5492,7 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5509,7 +5506,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5532,16 +5529,16 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5591,7 +5588,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5600,16 +5597,16 @@
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AI33" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AI33" t="s" s="2">
+      <c r="AJ33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -5623,7 +5620,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5649,10 +5646,10 @@
         <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5703,25 +5700,25 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -5735,7 +5732,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5813,7 +5810,7 @@
         <v>132</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5845,10 +5842,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>77</v>
@@ -5870,13 +5867,13 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5927,7 +5924,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5959,11 +5956,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5985,10 +5982,10 @@
         <v>128</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>144</v>
@@ -6043,7 +6040,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -6075,7 +6072,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6101,16 +6098,16 @@
         <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>77</v>
@@ -6159,7 +6156,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>83</v>
@@ -6177,7 +6174,7 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6191,7 +6188,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6217,16 +6214,16 @@
         <v>97</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6275,7 +6272,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6293,7 +6290,7 @@
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6307,7 +6304,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6330,19 +6327,19 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6367,14 +6364,14 @@
         <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="X40" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="X40" t="s" s="2">
+      <c r="Y40" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>304</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6391,7 +6388,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6400,7 +6397,7 @@
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>95</v>
@@ -6409,7 +6406,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6423,11 +6420,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6449,16 +6446,16 @@
         <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>77</v>
@@ -6507,7 +6504,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6525,7 +6522,7 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6539,7 +6536,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6565,13 +6562,13 @@
         <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6621,7 +6618,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6639,7 +6636,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6653,7 +6650,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6679,16 +6676,16 @@
         <v>103</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>77</v>
@@ -6713,14 +6710,14 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="Y43" t="s" s="2">
-        <v>364</v>
-      </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6737,7 +6734,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>83</v>
@@ -6755,7 +6752,7 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6769,7 +6766,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6792,19 +6789,19 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -6853,7 +6850,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6865,13 +6862,13 @@
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6885,7 +6882,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6911,10 +6908,10 @@
         <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6965,25 +6962,25 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -6997,7 +6994,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7023,10 +7020,10 @@
         <v>128</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>144</v>
@@ -7079,7 +7076,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -7097,7 +7094,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7111,11 +7108,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7137,10 +7134,10 @@
         <v>128</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>144</v>
@@ -7195,7 +7192,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -7227,7 +7224,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7253,13 +7250,13 @@
         <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7309,7 +7306,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>83</v>
@@ -7327,7 +7324,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7341,7 +7338,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7367,10 +7364,10 @@
         <v>103</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7397,14 +7394,14 @@
         <v>77</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="Y49" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="Y49" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7421,7 +7418,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>83</v>
@@ -7439,7 +7436,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7453,7 +7450,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7476,13 +7473,13 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7509,40 +7506,40 @@
         <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Y50" t="s" s="2">
+      <c r="Z50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH50" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>95</v>
@@ -7551,7 +7548,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7565,7 +7562,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7591,13 +7588,13 @@
         <v>103</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7623,40 +7620,40 @@
         <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Y51" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH51" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>95</v>
@@ -7665,7 +7662,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7679,7 +7676,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7702,77 +7699,77 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P52" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="Q52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH52" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="Q52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>95</v>
@@ -7781,7 +7778,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7795,7 +7792,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7818,26 +7815,26 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P53" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="O53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P53" t="s" s="2">
-        <v>410</v>
-      </c>
       <c r="Q53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7881,7 +7878,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7890,7 +7887,7 @@
         <v>83</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>95</v>
@@ -7899,7 +7896,7 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -7913,7 +7910,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7936,19 +7933,19 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -7997,7 +7994,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -8006,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>95</v>
@@ -8015,7 +8012,7 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8029,7 +8026,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8052,16 +8049,16 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8111,7 +8108,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -8120,7 +8117,7 @@
         <v>83</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>95</v>
@@ -8129,7 +8126,7 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8143,7 +8140,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8166,16 +8163,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8225,7 +8222,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -8234,7 +8231,7 @@
         <v>83</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>95</v>
@@ -8243,7 +8240,7 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8257,7 +8254,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8280,16 +8277,16 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8339,7 +8336,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -8348,7 +8345,7 @@
         <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>95</v>
@@ -8357,7 +8354,7 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8371,7 +8368,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8397,10 +8394,10 @@
         <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8451,25 +8448,25 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8483,7 +8480,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8509,10 +8506,10 @@
         <v>128</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>144</v>
@@ -8565,7 +8562,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -8583,7 +8580,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8597,11 +8594,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8623,10 +8620,10 @@
         <v>128</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>144</v>
@@ -8681,7 +8678,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8713,7 +8710,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8736,16 +8733,16 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8771,14 +8768,14 @@
         <v>77</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Y61" t="s" s="2">
-        <v>391</v>
-      </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8795,7 +8792,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>83</v>
@@ -8813,7 +8810,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8827,7 +8824,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8850,23 +8847,23 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P62" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Q62" t="s" s="2">
         <v>77</v>
@@ -8911,7 +8908,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -8929,7 +8926,7 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -8943,7 +8940,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8966,19 +8963,19 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>77</v>
@@ -9027,7 +9024,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -9036,7 +9033,7 @@
         <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>95</v>
@@ -9045,7 +9042,7 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9059,7 +9056,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9085,10 +9082,10 @@
         <v>85</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9139,25 +9136,25 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9171,7 +9168,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9197,10 +9194,10 @@
         <v>128</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>144</v>
@@ -9253,7 +9250,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -9271,7 +9268,7 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9285,11 +9282,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9311,10 +9308,10 @@
         <v>128</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>144</v>
@@ -9369,7 +9366,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -9401,7 +9398,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9424,16 +9421,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9459,14 +9456,14 @@
         <v>77</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X67" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Y67" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Y67" t="s" s="2">
-        <v>391</v>
-      </c>
       <c r="Z67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9483,7 +9480,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>83</v>
@@ -9501,7 +9498,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9515,7 +9512,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9541,16 +9538,16 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -9599,7 +9596,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -9608,7 +9605,7 @@
         <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>95</v>
@@ -9617,7 +9614,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>

--- a/branches/master/StructureDefinition-questionnaire-s37.xlsx
+++ b/branches/master/StructureDefinition-questionnaire-s37.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$76</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="508">
   <si>
     <t>Property</t>
   </si>
@@ -311,13 +311,196 @@
 </t>
   </si>
   <si>
-    <t>Questionnaire.implicitRules</t>
+    <t>Questionnaire.meta.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Questionnaire.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Questionnaire.meta.versionId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>Questionnaire.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>2022-04-13T08:39:24+02:00</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>Questionnaire.meta.source</t>
   </si>
   <si>
     <t xml:space="preserve">uri
 </t>
   </si>
   <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>Questionnaire.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>Questionnaire.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>Questionnaire.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>Questionnaire.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -413,28 +596,13 @@
     <t>Questionnaire.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
     <t>An Extension</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>settings</t>
@@ -457,10 +625,6 @@
     <t>Questionnaire.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -468,9 +632,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -820,9 +981,6 @@
     <t>It may be possible for the questionnaire to be used in jurisdictions other than those for which it was originally designed or intended.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>Countries and regions within which this artifact is targeted for use.</t>
   </si>
   <si>
@@ -940,10 +1098,6 @@
     <t>Questionnaire.code</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
     <t>Concept that represents the overall questionnaire</t>
   </si>
   <si>
@@ -951,9 +1105,6 @@
   </si>
   <si>
     <t>Allows linking of the complete Questionnaire resources to formal terminologies.  It's common for "panels" of questions to be identified by a code.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>Codes for questionnaires, groups and individual questions.</t>
@@ -995,22 +1146,7 @@
     <t>Questionnaire.item.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Questionnaire.item.extension</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Settings</t>
@@ -1182,12 +1318,6 @@
   </si>
   <si>
     <t>Questionnaire.item.enableWhen.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Questionnaire.item.enableWhen.modifierExtension</t>
@@ -1787,7 +1917,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN68"/>
+  <dimension ref="A1:AN76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1819,11 +1949,11 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="86.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="59.69140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="45.5390625" customWidth="true" bestFit="true" hidden="true"/>
@@ -2317,23 +2447,21 @@
         <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L5" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>100</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>77</v>
@@ -2382,7 +2510,7 @@
         <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
@@ -2394,13 +2522,13 @@
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>77</v>
@@ -2414,18 +2542,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
@@ -2472,28 +2600,28 @@
         <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>110</v>
@@ -2502,19 +2630,19 @@
         <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>77</v>
@@ -2528,11 +2656,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2548,7 +2676,7 @@
         <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>113</v>
@@ -2571,7 +2699,7 @@
         <v>77</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="S7" t="s" s="2">
         <v>77</v>
@@ -2610,7 +2738,7 @@
         <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>75</v>
@@ -2628,7 +2756,7 @@
         <v>77</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>77</v>
@@ -2646,14 +2774,14 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>77</v>
@@ -2662,19 +2790,19 @@
         <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2685,7 +2813,7 @@
         <v>77</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -2730,19 +2858,19 @@
         <v>75</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>77</v>
@@ -2756,7 +2884,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2767,7 +2895,7 @@
         <v>75</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>77</v>
@@ -2776,18 +2904,20 @@
         <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>77</v>
@@ -2824,29 +2954,31 @@
         <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AB9" s="2"/>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>133</v>
-      </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>77</v>
@@ -2866,11 +2998,9 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2879,7 +3009,7 @@
         <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>77</v>
@@ -2888,18 +3018,20 @@
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>77</v>
@@ -2948,7 +3080,7 @@
         <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -2957,10 +3089,10 @@
         <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>77</v>
@@ -2980,11 +3112,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2997,26 +3129,24 @@
         <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="I11" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J11" t="s" s="2">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>77</v>
       </c>
@@ -3040,13 +3170,13 @@
         <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>77</v>
@@ -3076,13 +3206,13 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>77</v>
@@ -3107,7 +3237,7 @@
         <v>75</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>77</v>
@@ -3119,7 +3249,7 @@
         <v>84</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>148</v>
@@ -3130,9 +3260,7 @@
       <c r="M12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="N12" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3156,13 +3284,13 @@
         <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>77</v>
@@ -3180,13 +3308,13 @@
         <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>77</v>
@@ -3195,13 +3323,13 @@
         <v>95</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>77</v>
@@ -3220,7 +3348,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>83</v>
@@ -3229,26 +3357,24 @@
         <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3296,13 +3422,13 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>77</v>
@@ -3311,16 +3437,16 @@
         <v>95</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -3328,7 +3454,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3348,19 +3474,19 @@
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3386,13 +3512,13 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>77</v>
@@ -3410,7 +3536,7 @@
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -3425,13 +3551,13 @@
         <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3442,11 +3568,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3462,10 +3588,10 @@
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>171</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>172</v>
@@ -3476,9 +3602,7 @@
       <c r="M15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="N15" t="s" s="2">
-        <v>175</v>
-      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3526,7 +3650,7 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -3535,7 +3659,7 @@
         <v>83</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>95</v>
@@ -3544,7 +3668,7 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
@@ -3562,14 +3686,14 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>77</v>
@@ -3578,19 +3702,19 @@
         <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3640,25 +3764,25 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
@@ -3672,7 +3796,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3695,18 +3819,16 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="N17" t="s" s="2">
-        <v>187</v>
-      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3742,19 +3864,17 @@
         <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3766,50 +3886,52 @@
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>191</v>
@@ -3817,9 +3939,7 @@
       <c r="L18" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>193</v>
-      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>77</v>
@@ -3844,13 +3964,13 @@
         <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>77</v>
@@ -3868,28 +3988,28 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3900,42 +4020,42 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>77</v>
@@ -3984,28 +4104,28 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -4016,7 +4136,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4027,7 +4147,7 @@
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>77</v>
@@ -4039,18 +4159,20 @@
         <v>84</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4074,13 +4196,13 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -4098,13 +4220,13 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>77</v>
@@ -4113,13 +4235,13 @@
         <v>95</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -4130,15 +4252,15 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>83</v>
@@ -4153,18 +4275,20 @@
         <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4212,13 +4336,13 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>77</v>
@@ -4227,16 +4351,16 @@
         <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4244,7 +4368,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4270,17 +4394,15 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4328,7 +4450,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4343,13 +4465,13 @@
         <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4360,7 +4482,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4371,7 +4493,7 @@
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>77</v>
@@ -4383,18 +4505,20 @@
         <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>233</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4442,25 +4566,25 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4474,7 +4598,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4494,19 +4618,19 @@
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>240</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4556,7 +4680,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4571,10 +4695,10 @@
         <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4588,7 +4712,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4608,22 +4732,20 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4672,7 +4794,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4687,10 +4809,10 @@
         <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>169</v>
+        <v>241</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4702,9 +4824,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4712,31 +4834,31 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>254</v>
+        <v>161</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4762,13 +4884,13 @@
         <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>77</v>
@@ -4786,13 +4908,13 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>77</v>
@@ -4801,13 +4923,13 @@
         <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>169</v>
+        <v>250</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4818,7 +4940,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4838,21 +4960,23 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4900,7 +5024,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4915,16 +5039,16 @@
         <v>95</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>267</v>
+        <v>184</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4932,18 +5056,18 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>77</v>
@@ -4952,21 +5076,21 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4990,13 +5114,13 @@
         <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>77</v>
@@ -5014,13 +5138,13 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>77</v>
@@ -5029,16 +5153,16 @@
         <v>95</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>169</v>
+        <v>266</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5046,11 +5170,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5066,19 +5190,19 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5128,7 +5252,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -5143,16 +5267,16 @@
         <v>95</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5160,7 +5284,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5180,22 +5304,22 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>276</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5244,7 +5368,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5259,16 +5383,16 @@
         <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5276,7 +5400,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5287,7 +5411,7 @@
         <v>75</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>77</v>
@@ -5299,20 +5423,18 @@
         <v>84</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5360,13 +5482,13 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>77</v>
@@ -5375,16 +5497,16 @@
         <v>95</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>169</v>
+        <v>290</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5392,7 +5514,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5403,7 +5525,7 @@
         <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>77</v>
@@ -5412,21 +5534,21 @@
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5450,13 +5572,13 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
@@ -5474,13 +5596,13 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>77</v>
@@ -5489,10 +5611,10 @@
         <v>95</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5506,7 +5628,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5526,21 +5648,23 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5588,7 +5712,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5597,16 +5721,16 @@
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>311</v>
+        <v>95</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>312</v>
+        <v>221</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -5620,7 +5744,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5631,7 +5755,7 @@
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -5640,18 +5764,20 @@
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>85</v>
+        <v>306</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -5676,13 +5802,13 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>77</v>
@@ -5700,25 +5826,25 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>317</v>
+        <v>221</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -5732,7 +5858,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5743,7 +5869,7 @@
         <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>77</v>
@@ -5755,15 +5881,17 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>128</v>
+        <v>292</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>129</v>
+        <v>314</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>77</v>
@@ -5800,55 +5928,55 @@
         <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AB35" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AF35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AM35" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="B36" t="s" s="2">
         <v>320</v>
       </c>
+      <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5858,7 +5986,7 @@
         <v>83</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5867,7 +5995,7 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>322</v>
@@ -5876,7 +6004,9 @@
         <v>323</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5924,31 +6054,31 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5956,43 +6086,41 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>128</v>
+        <v>327</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>77</v>
       </c>
@@ -6040,31 +6168,31 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>331</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>126</v>
+        <v>332</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6072,7 +6200,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6080,7 +6208,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>83</v>
@@ -6095,19 +6223,19 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>85</v>
+        <v>327</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>77</v>
@@ -6156,10 +6284,10 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>83</v>
@@ -6171,24 +6299,24 @@
         <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6196,34 +6324,34 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J39" t="s" s="2">
-        <v>97</v>
+        <v>341</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6272,7 +6400,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6287,16 +6415,16 @@
         <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>77</v>
+        <v>346</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>340</v>
+        <v>221</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6304,7 +6432,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6324,22 +6452,20 @@
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>297</v>
+        <v>139</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6364,13 +6490,13 @@
         <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>302</v>
+        <v>351</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>303</v>
+        <v>352</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -6388,7 +6514,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6397,7 +6523,7 @@
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>95</v>
@@ -6406,7 +6532,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>304</v>
+        <v>353</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6420,18 +6546,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>347</v>
+        <v>77</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
@@ -6443,20 +6569,18 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>85</v>
+        <v>355</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6504,25 +6628,25 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>95</v>
+        <v>360</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6534,9 +6658,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6544,13 +6668,13 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6562,14 +6686,12 @@
         <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>354</v>
+        <v>97</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>77</v>
@@ -6618,7 +6740,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>353</v>
+        <v>99</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6630,13 +6752,13 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>245</v>
+        <v>100</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6650,7 +6772,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6658,10 +6780,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>77</v>
@@ -6676,17 +6798,13 @@
         <v>103</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>358</v>
+        <v>186</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6710,65 +6828,65 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>362</v>
+        <v>77</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AB43" s="2"/>
+      <c r="AC43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK43" t="s" s="2">
+      <c r="B44" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AL43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" hidden="true">
-      <c r="A44" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6777,19 +6895,19 @@
         <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>306</v>
+        <v>365</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>366</v>
@@ -6797,12 +6915,8 @@
       <c r="L44" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>369</v>
-      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6850,7 +6964,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>365</v>
+        <v>110</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6859,16 +6973,16 @@
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>370</v>
+        <v>111</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6882,39 +6996,43 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>77</v>
+        <v>369</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>314</v>
+        <v>370</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6962,25 +7080,25 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>316</v>
+        <v>372</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>317</v>
+        <v>184</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -6994,18 +7112,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>77</v>
@@ -7017,18 +7135,20 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7076,25 +7196,25 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>319</v>
+        <v>373</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>317</v>
+        <v>378</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7106,44 +7226,44 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>327</v>
+        <v>381</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>144</v>
+        <v>382</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>145</v>
+        <v>383</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7192,25 +7312,25 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>328</v>
+        <v>379</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>126</v>
+        <v>384</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7224,7 +7344,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7232,10 +7352,10 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>77</v>
@@ -7247,18 +7367,20 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7282,13 +7404,13 @@
         <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>77</v>
+        <v>351</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>77</v>
@@ -7306,16 +7428,16 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>95</v>
@@ -7324,7 +7446,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7338,15 +7460,15 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>77</v>
+        <v>391</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>83</v>
@@ -7361,16 +7483,20 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7394,13 +7520,13 @@
         <v>77</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>383</v>
+        <v>77</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>384</v>
+        <v>77</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -7418,10 +7544,10 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>83</v>
@@ -7436,7 +7562,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7448,9 +7574,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7464,7 +7590,7 @@
         <v>83</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7473,15 +7599,17 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>386</v>
+        <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -7506,13 +7634,13 @@
         <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7530,16 +7658,16 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>391</v>
+        <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>95</v>
@@ -7548,7 +7676,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>364</v>
+        <v>297</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7562,7 +7690,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7570,7 +7698,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>83</v>
@@ -7585,18 +7713,20 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7620,13 +7750,13 @@
         <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
@@ -7644,16 +7774,16 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>397</v>
+        <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>95</v>
@@ -7662,7 +7792,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7674,9 +7804,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7684,39 +7814,39 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H52" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H52" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="I52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>201</v>
+        <v>355</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P52" t="s" s="2">
-        <v>402</v>
-      </c>
+      <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7760,25 +7890,25 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>403</v>
+        <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>95</v>
+        <v>414</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7792,7 +7922,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7815,26 +7945,20 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>201</v>
+        <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>405</v>
+        <v>97</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P53" t="s" s="2">
-        <v>409</v>
-      </c>
+      <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7878,7 +8002,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>404</v>
+        <v>99</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7887,16 +8011,16 @@
         <v>83</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>403</v>
+        <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>364</v>
+        <v>100</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -7910,18 +8034,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
@@ -7933,20 +8057,18 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>411</v>
+        <v>104</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>412</v>
+        <v>105</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7994,25 +8116,25 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>410</v>
+        <v>110</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>415</v>
+        <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>364</v>
+        <v>100</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8026,41 +8148,43 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>77</v>
+        <v>369</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>417</v>
+        <v>103</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>418</v>
+        <v>370</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>419</v>
+        <v>371</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8108,25 +8232,25 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>416</v>
+        <v>372</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>421</v>
+        <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>364</v>
+        <v>184</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8135,12 +8259,12 @@
         <v>77</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8148,7 +8272,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>83</v>
@@ -8163,16 +8287,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>423</v>
+        <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8222,16 +8346,16 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>427</v>
+        <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>95</v>
@@ -8240,7 +8364,7 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8254,7 +8378,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8262,10 +8386,10 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>77</v>
@@ -8277,17 +8401,15 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>306</v>
+        <v>161</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>77</v>
@@ -8312,13 +8434,13 @@
         <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>77</v>
+        <v>425</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>77</v>
+        <v>426</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>77</v>
@@ -8336,16 +8458,16 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>427</v>
+        <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>95</v>
@@ -8354,7 +8476,7 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8368,7 +8490,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8376,7 +8498,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>83</v>
@@ -8391,13 +8513,13 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>85</v>
+        <v>428</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>314</v>
+        <v>429</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>315</v>
+        <v>430</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8424,13 +8546,13 @@
         <v>77</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>77</v>
+        <v>431</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>77</v>
+        <v>432</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>77</v>
@@ -8448,25 +8570,25 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>316</v>
+        <v>427</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>77</v>
+        <v>433</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>317</v>
+        <v>408</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8480,18 +8602,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>77</v>
@@ -8503,16 +8625,16 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>373</v>
+        <v>435</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>374</v>
+        <v>436</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>144</v>
+        <v>437</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8538,13 +8660,13 @@
         <v>77</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>77</v>
+        <v>436</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>77</v>
+        <v>438</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>77</v>
@@ -8562,25 +8684,25 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>319</v>
+        <v>434</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>77</v>
+        <v>439</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>317</v>
+        <v>408</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8592,49 +8714,49 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>128</v>
+        <v>253</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>326</v>
+        <v>441</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>327</v>
+        <v>442</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="Q60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8678,25 +8800,25 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>328</v>
+        <v>440</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>77</v>
+        <v>445</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>126</v>
+        <v>408</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8710,7 +8832,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8718,7 +8840,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>83</v>
@@ -8733,22 +8855,26 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>436</v>
+        <v>253</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="Q61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8768,13 +8894,13 @@
         <v>77</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -8792,16 +8918,16 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>77</v>
+        <v>445</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>95</v>
@@ -8810,7 +8936,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8824,7 +8950,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8847,24 +8973,24 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>201</v>
+        <v>253</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P62" t="s" s="2">
-        <v>444</v>
-      </c>
+      <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
         <v>77</v>
       </c>
@@ -8908,7 +9034,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -8917,7 +9043,7 @@
         <v>83</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>77</v>
+        <v>457</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>95</v>
@@ -8926,7 +9052,7 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -8940,7 +9066,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8951,7 +9077,7 @@
         <v>75</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>77</v>
@@ -8963,20 +9089,18 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>306</v>
+        <v>459</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9024,16 +9148,16 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>95</v>
@@ -9042,7 +9166,7 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9051,12 +9175,12 @@
         <v>77</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>77</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9079,15 +9203,17 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>85</v>
+        <v>465</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>314</v>
+        <v>466</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>77</v>
@@ -9136,7 +9262,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>316</v>
+        <v>464</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -9145,16 +9271,16 @@
         <v>83</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>77</v>
+        <v>469</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>317</v>
+        <v>408</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9168,11 +9294,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9191,16 +9317,16 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>128</v>
+        <v>355</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>373</v>
+        <v>471</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>374</v>
+        <v>472</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>144</v>
+        <v>473</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9250,7 +9376,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>319</v>
+        <v>470</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -9259,16 +9385,16 @@
         <v>76</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>77</v>
+        <v>469</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>317</v>
+        <v>408</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9282,43 +9408,39 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>453</v>
+        <v>474</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>326</v>
+        <v>97</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9366,25 +9488,25 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>328</v>
+        <v>99</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9398,18 +9520,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>77</v>
@@ -9421,16 +9543,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>455</v>
+        <v>103</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>456</v>
+        <v>104</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>457</v>
+        <v>105</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>458</v>
+        <v>106</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9456,13 +9578,13 @@
         <v>77</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>77</v>
@@ -9480,25 +9602,25 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>454</v>
+        <v>110</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>364</v>
+        <v>100</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9512,11 +9634,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>77</v>
+        <v>369</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9529,25 +9651,25 @@
         <v>77</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>460</v>
+        <v>370</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>461</v>
+        <v>371</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>462</v>
+        <v>106</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>463</v>
+        <v>197</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -9596,7 +9718,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>459</v>
+        <v>372</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -9605,29 +9727,947 @@
         <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>464</v>
+        <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI69" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN68" t="s" s="2">
+      <c r="AJ69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="Q70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN68">
+  <autoFilter ref="A1:AN76">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9637,7 +10677,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI67">
+  <conditionalFormatting sqref="A2:AI75">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/master/StructureDefinition-questionnaire-s37.xlsx
+++ b/branches/master/StructureDefinition-questionnaire-s37.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0-S37</t>
   </si>
   <si>
     <t>Name</t>

--- a/branches/master/StructureDefinition-questionnaire-s37.xlsx
+++ b/branches/master/StructureDefinition-questionnaire-s37.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$68</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="466">
   <si>
     <t>Property</t>
   </si>
@@ -311,800 +311,649 @@
 </t>
   </si>
   <si>
-    <t>Questionnaire.meta.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Questionnaire.meta.extension</t>
+    <t>Questionnaire.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Questionnaire.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Questionnaire.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Questionnaire.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Questionnaire.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://science37.com/StructureDefinition/form-settings}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension : Form Settings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension : Questionnaire.settings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Questionnaire.modifierExtension</t>
   </si>
   <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Questionnaire.url</t>
+  </si>
+  <si>
+    <t>Canonical identifier for this questionnaire, represented as a URI (globally unique)</t>
+  </si>
+  <si>
+    <t>An absolute URI that is used to identify this questionnaire when it is referenced in a specification, model, design or an instance; also called its canonical identifier. This SHOULD be globally unique and SHOULD be a literal address at which at which an authoritative instance of this questionnaire is (or will be) published. This URL can be the target of a canonical reference. It SHALL remain the same when the questionnaire is stored on different servers.</t>
+  </si>
+  <si>
+    <t>The name of the referenced questionnaire can be conveyed using the http://hl7.org/fhir/StructureDefinition/display extension.</t>
+  </si>
+  <si>
+    <t>…  This is the id that will be used to link a QuestionnaireResponse to the Questionnaire the response is for.</t>
+  </si>
+  <si>
+    <t>Definition.url</t>
+  </si>
+  <si>
+    <t>.identifier[scope=BUSN;reliability=ISS]</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Questionnaire.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
+    <t>Additional identifier for the questionnaire</t>
+  </si>
+  <si>
+    <t>A formal identifier that is used to identify this questionnaire when it is represented in other formats, or referenced in a specification, model, design or an instance.</t>
+  </si>
+  <si>
+    <t>Typically, this is used for identifiers that can go in an HL7 V3 II (instance identifier) data type, and can then identify this questionnaire outside of FHIR, where it is not possible to use the logical URI.</t>
+  </si>
+  <si>
+    <t>Allows externally provided and/or usable business identifiers to be easily associated with the module.</t>
+  </si>
+  <si>
+    <t>Definition.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>no-gen-base</t>
+  </si>
+  <si>
+    <t>Questionnaire.version</t>
+  </si>
+  <si>
+    <t>Business version of the questionnaire</t>
+  </si>
+  <si>
+    <t>The identifier that is used to identify this version of the questionnaire when it is referenced in a specification, model, design or instance. This is an arbitrary value managed by the questionnaire author and is not expected to be globally unique. For example, it might be a timestamp (e.g. yyyymmdd) if a managed version is not available. There is also no expectation that versions can be placed in a lexicographical sequence.</t>
+  </si>
+  <si>
+    <t>There may be different questionnaire instances that have the same identifier but different versions.  The version can be appended to the url in a reference to allow a reference to a particular business version of the questionnaire with the format [url]|[version].</t>
+  </si>
+  <si>
+    <t>Definition.version</t>
+  </si>
+  <si>
+    <t>N/A (to add?)</t>
+  </si>
+  <si>
+    <t>FiveWs.version</t>
+  </si>
+  <si>
+    <t>Questionnaire.name</t>
+  </si>
+  <si>
+    <t>Name for this questionnaire (computer friendly)</t>
+  </si>
+  <si>
+    <t>A natural language name identifying the questionnaire. This name should be usable as an identifier for the module by machine processing applications such as code generation.</t>
+  </si>
+  <si>
+    <t>The name is not expected to be globally unique. The name should be a simple alphanumeric type name to ensure that it is machine-processing friendly.</t>
+  </si>
+  <si>
+    <t>Support human navigation and code generation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inv-0
 </t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Questionnaire.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
+    <t>Questionnaire.title</t>
+  </si>
+  <si>
+    <t>Name for this questionnaire (human friendly)</t>
+  </si>
+  <si>
+    <t>A short, descriptive, user-friendly title for the questionnaire.</t>
+  </si>
+  <si>
+    <t>This name does not need to be machine-processing friendly and may contain punctuation, white-space, etc.</t>
+  </si>
+  <si>
+    <t>Definition.title</t>
+  </si>
+  <si>
+    <t>.title</t>
+  </si>
+  <si>
+    <t>Questionnaire.derivedFrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(Questionnaire)
 </t>
   </si>
   <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t>Questionnaire.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
+    <t>Instantiates protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL of a Questionnaire that this Questionnaire is based on.</t>
+  </si>
+  <si>
+    <t>Allows a Questionnaire to be created based on another Questionnaire.</t>
+  </si>
+  <si>
+    <t>Definition.derivedFrom</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DRIV].target[classCode=OBS, moodCode=DEFN]</t>
+  </si>
+  <si>
+    <t>Questionnaire.status</t>
+  </si>
+  <si>
+    <t>draft | active | retired | unknown</t>
+  </si>
+  <si>
+    <t>The status of this questionnaire. Enables tracking the life-cycle of the content.</t>
+  </si>
+  <si>
+    <t>Allows filtering of questionnaires that are appropriate for use versus not.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The lifecycle status of an artifact.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Definition.status</t>
+  </si>
+  <si>
+    <t>.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Questionnaire.experimental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
-  </si>
-  <si>
-    <t>2022-04-13T08:39:24+02:00</t>
-  </si>
-  <si>
-    <t>Meta.lastUpdated</t>
-  </si>
-  <si>
-    <t>Questionnaire.meta.source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
+    <t>For testing purposes, not real usage</t>
+  </si>
+  <si>
+    <t>A Boolean value to indicate that this questionnaire is authored for testing purposes (or education/evaluation/marketing) and is not intended to be used for genuine usage.</t>
+  </si>
+  <si>
+    <t>Enables experimental content to be developed following the same lifecycle that would be used for a production-level questionnaire.</t>
+  </si>
+  <si>
+    <t>Definition.experimental</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Questionnaire.subjectType</t>
+  </si>
+  <si>
+    <t>Resource that can be subject of QuestionnaireResponse</t>
+  </si>
+  <si>
+    <t>The types of subjects that can be the subject of responses created for the questionnaire.</t>
+  </si>
+  <si>
+    <t>If none are specified, then the subject is unlimited.</t>
+  </si>
+  <si>
+    <t>One of the resource types defined as part of this version of FHIR.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
+  </si>
+  <si>
+    <t>Definition.subject[x]</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=META].target[classCode=OBS, moodCode=DEFN, isCriterion=true].participation.role.classCode</t>
+  </si>
+  <si>
+    <t>Questionnaire.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revision Date
 </t>
   </si>
   <si>
-    <t>Identifies where the resource comes from</t>
-  </si>
-  <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
-  </si>
-  <si>
-    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
-This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
-  </si>
-  <si>
-    <t>Meta.source</t>
-  </si>
-  <si>
-    <t>Questionnaire.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Meta.profile</t>
-  </si>
-  <si>
-    <t>Questionnaire.meta.security</t>
+    <t>Date last changed</t>
+  </si>
+  <si>
+    <t>The date  (and optionally time) when the questionnaire was published. The date must change when the business version changes and it must change if the status code changes. In addition, it should change when the substantive content of the questionnaire changes.</t>
+  </si>
+  <si>
+    <t>Note that this is not the same as the resource last-modified-date, since the resource may be a secondary representation of the questionnaire. Additional specific dates may be added as extensions or be found by consulting Provenances associated with past versions of the resource.</t>
+  </si>
+  <si>
+    <t>Definition.date</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>Questionnaire.publisher</t>
+  </si>
+  <si>
+    <t>Name of the publisher (organization or individual)</t>
+  </si>
+  <si>
+    <t>The name of the organization or individual that published the questionnaire.</t>
+  </si>
+  <si>
+    <t>Usually an organization but may be an individual. The publisher (or steward) of the questionnaire is the organization or individual primarily responsible for the maintenance and upkeep of the questionnaire. This is not necessarily the same individual or organization that developed and initially authored the content. The publisher is the primary point of contact for questions or issues with the questionnaire. This item SHOULD be populated unless the information is available from context.</t>
+  </si>
+  <si>
+    <t>Helps establish the "authority/credibility" of the questionnaire.  May also allow for contact.</t>
+  </si>
+  <si>
+    <t>Definition.publisher</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>FiveWs.witness</t>
+  </si>
+  <si>
+    <t>Questionnaire.contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactDetail
+</t>
+  </si>
+  <si>
+    <t>Contact details for the publisher</t>
+  </si>
+  <si>
+    <t>Contact details to assist a user in finding and communicating with the publisher.</t>
+  </si>
+  <si>
+    <t>May be a web site, an email address, a telephone number, etc.</t>
+  </si>
+  <si>
+    <t>Definition.contact</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CALLBCK].role</t>
+  </si>
+  <si>
+    <t>Questionnaire.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
+    <t>Natural language description of the questionnaire</t>
+  </si>
+  <si>
+    <t>A free text natural language description of the questionnaire from a consumer's perspective.</t>
+  </si>
+  <si>
+    <t>This description can be used to capture details such as why the questionnaire was built, comments about misuse, instructions for clinical use and interpretation, literature references, examples from the paper world, etc. It is not a rendering of the questionnaire as conveyed in the 'text' field of the resource itself. This item SHOULD be populated unless the information is available from context (e.g. the language of the questionnaire is presumed to be the predominant language in the place the questionnaire was created).</t>
+  </si>
+  <si>
+    <t>Definition.description</t>
+  </si>
+  <si>
+    <t>.text</t>
+  </si>
+  <si>
+    <t>Questionnaire.useContext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UsageContext
+</t>
+  </si>
+  <si>
+    <t>The context that the content is intended to support</t>
+  </si>
+  <si>
+    <t>The content was developed with a focus and intent of supporting the contexts that are listed. These contexts may be general categories (gender, age, ...) or may be references to specific programs (insurance plans, studies, ...) and may be used to assist with indexing and searching for appropriate questionnaire instances.</t>
+  </si>
+  <si>
+    <t>When multiple useContexts are specified, there is no expectation that all or any of the contexts apply.</t>
+  </si>
+  <si>
+    <t>Assist in searching for appropriate content.</t>
+  </si>
+  <si>
+    <t>Definition.useContext</t>
+  </si>
+  <si>
+    <t>Questionnaire.jurisdiction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Intended jurisdiction for questionnaire (if applicable)</t>
+  </si>
+  <si>
+    <t>A legal or geographic region in which the questionnaire is intended to be used.</t>
+  </si>
+  <si>
+    <t>It may be possible for the questionnaire to be used in jurisdictions other than those for which it was originally designed or intended.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Countries and regions within which this artifact is targeted for use.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/jurisdiction</t>
+  </si>
+  <si>
+    <t>Definition.jurisdiction</t>
+  </si>
+  <si>
+    <t>Questionnaire.purpose</t>
+  </si>
+  <si>
+    <t>Why this questionnaire is defined</t>
+  </si>
+  <si>
+    <t>Explanation of why this questionnaire is needed and why it has been designed as it has.</t>
+  </si>
+  <si>
+    <t>This element does not describe the usage of the questionnaire. Instead, it provides traceability of ''why'' the resource is either needed or ''why'' it is defined as it is.  This may be used to point to source materials or specifications that drove the structure of this questionnaire.</t>
+  </si>
+  <si>
+    <t>Definition.purpose</t>
+  </si>
+  <si>
+    <t>.reasonCode.text</t>
+  </si>
+  <si>
+    <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>Questionnaire.copyright</t>
+  </si>
+  <si>
+    <t>License
+Restrictions</t>
+  </si>
+  <si>
+    <t>Use and/or publishing restrictions</t>
+  </si>
+  <si>
+    <t>A copyright statement relating to the questionnaire and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the questionnaire.</t>
+  </si>
+  <si>
+    <t>Consumers must be able to determine any legal restrictions on the use of the questionnaire and/or its content.</t>
+  </si>
+  <si>
+    <t>Definition.copyright</t>
+  </si>
+  <si>
+    <t>Questionnaire.approvalDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t>When the questionnaire was approved by publisher</t>
+  </si>
+  <si>
+    <t>The date on which the resource content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
+  </si>
+  <si>
+    <t>The 'date' element may be more recent than the approval date because of minor changes or editorial corrections.</t>
+  </si>
+  <si>
+    <t>Definition.approvalDate</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="SUBJ"].act[classCode=CACT;moodCode=EVN;code="approval"].effectiveTime</t>
+  </si>
+  <si>
+    <t>Questionnaire.lastReviewDate</t>
+  </si>
+  <si>
+    <t>When the questionnaire was last reviewed</t>
+  </si>
+  <si>
+    <t>The date on which the resource content was last reviewed. Review happens periodically after approval but does not change the original approval date.</t>
+  </si>
+  <si>
+    <t>If specified, this date follows the original approval date.</t>
+  </si>
+  <si>
+    <t>Gives a sense of how "current" the content is.  Resources that have not been reviewed in a long time may have a risk of being less appropriate/relevant.</t>
+  </si>
+  <si>
+    <t>Definition.lastReviewDate</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="SUBJ"; subsetCode="RECENT"].act[classCode=CACT;moodCode=EVN;code="review"].effectiveTime</t>
+  </si>
+  <si>
+    <t>Questionnaire.effectivePeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>When the questionnaire is expected to be used</t>
+  </si>
+  <si>
+    <t>The period during which the questionnaire content was or is planned to be in active use.</t>
+  </si>
+  <si>
+    <t>The effective period for a questionnaire  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 might be published in 2015.</t>
+  </si>
+  <si>
+    <t>Allows establishing a transition before a resource comes into effect and also allows for a sunsetting  process when new versions of the questionnaire are or are expected to be used instead.</t>
+  </si>
+  <si>
+    <t>Definition.effectivePeriod</t>
+  </si>
+  <si>
+    <t>Questionnaire.code</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Meta.security</t>
-  </si>
-  <si>
-    <t>Questionnaire.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+    <t>Concept that represents the overall questionnaire</t>
+  </si>
+  <si>
+    <t>An identifier for this question or group of questions in a particular terminology such as LOINC.</t>
+  </si>
+  <si>
+    <t>Allows linking of the complete Questionnaire resources to formal terminologies.  It's common for "panels" of questions to be identified by a code.</t>
   </si>
   <si>
     <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Meta.tag</t>
-  </si>
-  <si>
-    <t>Questionnaire.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Questionnaire.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Questionnaire.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Questionnaire.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Questionnaire.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://science37.com/StructureDefinition/form-settings}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension : Form Settings </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension : Questionnaire.settings </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>Questionnaire.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Questionnaire.url</t>
-  </si>
-  <si>
-    <t>Canonical identifier for this questionnaire, represented as a URI (globally unique)</t>
-  </si>
-  <si>
-    <t>An absolute URI that is used to identify this questionnaire when it is referenced in a specification, model, design or an instance; also called its canonical identifier. This SHOULD be globally unique and SHOULD be a literal address at which at which an authoritative instance of this questionnaire is (or will be) published. This URL can be the target of a canonical reference. It SHALL remain the same when the questionnaire is stored on different servers.</t>
-  </si>
-  <si>
-    <t>The name of the referenced questionnaire can be conveyed using the http://hl7.org/fhir/StructureDefinition/display extension.</t>
-  </si>
-  <si>
-    <t>…  This is the id that will be used to link a QuestionnaireResponse to the Questionnaire the response is for.</t>
-  </si>
-  <si>
-    <t>Definition.url</t>
-  </si>
-  <si>
-    <t>.identifier[scope=BUSN;reliability=ISS]</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Questionnaire.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Additional identifier for the questionnaire</t>
-  </si>
-  <si>
-    <t>A formal identifier that is used to identify this questionnaire when it is represented in other formats, or referenced in a specification, model, design or an instance.</t>
-  </si>
-  <si>
-    <t>Typically, this is used for identifiers that can go in an HL7 V3 II (instance identifier) data type, and can then identify this questionnaire outside of FHIR, where it is not possible to use the logical URI.</t>
-  </si>
-  <si>
-    <t>Allows externally provided and/or usable business identifiers to be easily associated with the module.</t>
-  </si>
-  <si>
-    <t>Definition.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>no-gen-base</t>
-  </si>
-  <si>
-    <t>Questionnaire.version</t>
-  </si>
-  <si>
-    <t>Business version of the questionnaire</t>
-  </si>
-  <si>
-    <t>The identifier that is used to identify this version of the questionnaire when it is referenced in a specification, model, design or instance. This is an arbitrary value managed by the questionnaire author and is not expected to be globally unique. For example, it might be a timestamp (e.g. yyyymmdd) if a managed version is not available. There is also no expectation that versions can be placed in a lexicographical sequence.</t>
-  </si>
-  <si>
-    <t>There may be different questionnaire instances that have the same identifier but different versions.  The version can be appended to the url in a reference to allow a reference to a particular business version of the questionnaire with the format [url]|[version].</t>
-  </si>
-  <si>
-    <t>Definition.version</t>
-  </si>
-  <si>
-    <t>N/A (to add?)</t>
-  </si>
-  <si>
-    <t>FiveWs.version</t>
-  </si>
-  <si>
-    <t>Questionnaire.name</t>
-  </si>
-  <si>
-    <t>Name for this questionnaire (computer friendly)</t>
-  </si>
-  <si>
-    <t>A natural language name identifying the questionnaire. This name should be usable as an identifier for the module by machine processing applications such as code generation.</t>
-  </si>
-  <si>
-    <t>The name is not expected to be globally unique. The name should be a simple alphanumeric type name to ensure that it is machine-processing friendly.</t>
-  </si>
-  <si>
-    <t>Support human navigation and code generation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv-0
-</t>
-  </si>
-  <si>
-    <t>Questionnaire.title</t>
-  </si>
-  <si>
-    <t>Name for this questionnaire (human friendly)</t>
-  </si>
-  <si>
-    <t>A short, descriptive, user-friendly title for the questionnaire.</t>
-  </si>
-  <si>
-    <t>This name does not need to be machine-processing friendly and may contain punctuation, white-space, etc.</t>
-  </si>
-  <si>
-    <t>Definition.title</t>
-  </si>
-  <si>
-    <t>.title</t>
-  </si>
-  <si>
-    <t>Questionnaire.derivedFrom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(Questionnaire)
-</t>
-  </si>
-  <si>
-    <t>Instantiates protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL of a Questionnaire that this Questionnaire is based on.</t>
-  </si>
-  <si>
-    <t>Allows a Questionnaire to be created based on another Questionnaire.</t>
-  </si>
-  <si>
-    <t>Definition.derivedFrom</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DRIV].target[classCode=OBS, moodCode=DEFN]</t>
-  </si>
-  <si>
-    <t>Questionnaire.status</t>
-  </si>
-  <si>
-    <t>draft | active | retired | unknown</t>
-  </si>
-  <si>
-    <t>The status of this questionnaire. Enables tracking the life-cycle of the content.</t>
-  </si>
-  <si>
-    <t>Allows filtering of questionnaires that are appropriate for use versus not.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The lifecycle status of an artifact.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Definition.status</t>
-  </si>
-  <si>
-    <t>.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Questionnaire.experimental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>For testing purposes, not real usage</t>
-  </si>
-  <si>
-    <t>A Boolean value to indicate that this questionnaire is authored for testing purposes (or education/evaluation/marketing) and is not intended to be used for genuine usage.</t>
-  </si>
-  <si>
-    <t>Enables experimental content to be developed following the same lifecycle that would be used for a production-level questionnaire.</t>
-  </si>
-  <si>
-    <t>Definition.experimental</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Questionnaire.subjectType</t>
-  </si>
-  <si>
-    <t>Resource that can be subject of QuestionnaireResponse</t>
-  </si>
-  <si>
-    <t>The types of subjects that can be the subject of responses created for the questionnaire.</t>
-  </si>
-  <si>
-    <t>If none are specified, then the subject is unlimited.</t>
-  </si>
-  <si>
-    <t>One of the resource types defined as part of this version of FHIR.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Definition.subject[x]</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=META].target[classCode=OBS, moodCode=DEFN, isCriterion=true].participation.role.classCode</t>
-  </si>
-  <si>
-    <t>Questionnaire.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revision Date
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Date last changed</t>
-  </si>
-  <si>
-    <t>The date  (and optionally time) when the questionnaire was published. The date must change when the business version changes and it must change if the status code changes. In addition, it should change when the substantive content of the questionnaire changes.</t>
-  </si>
-  <si>
-    <t>Note that this is not the same as the resource last-modified-date, since the resource may be a secondary representation of the questionnaire. Additional specific dates may be added as extensions or be found by consulting Provenances associated with past versions of the resource.</t>
-  </si>
-  <si>
-    <t>Definition.date</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>Questionnaire.publisher</t>
-  </si>
-  <si>
-    <t>Name of the publisher (organization or individual)</t>
-  </si>
-  <si>
-    <t>The name of the organization or individual that published the questionnaire.</t>
-  </si>
-  <si>
-    <t>Usually an organization but may be an individual. The publisher (or steward) of the questionnaire is the organization or individual primarily responsible for the maintenance and upkeep of the questionnaire. This is not necessarily the same individual or organization that developed and initially authored the content. The publisher is the primary point of contact for questions or issues with the questionnaire. This item SHOULD be populated unless the information is available from context.</t>
-  </si>
-  <si>
-    <t>Helps establish the "authority/credibility" of the questionnaire.  May also allow for contact.</t>
-  </si>
-  <si>
-    <t>Definition.publisher</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].role</t>
-  </si>
-  <si>
-    <t>FiveWs.witness</t>
-  </si>
-  <si>
-    <t>Questionnaire.contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactDetail
-</t>
-  </si>
-  <si>
-    <t>Contact details for the publisher</t>
-  </si>
-  <si>
-    <t>Contact details to assist a user in finding and communicating with the publisher.</t>
-  </si>
-  <si>
-    <t>May be a web site, an email address, a telephone number, etc.</t>
-  </si>
-  <si>
-    <t>Definition.contact</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CALLBCK].role</t>
-  </si>
-  <si>
-    <t>Questionnaire.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">markdown
-</t>
-  </si>
-  <si>
-    <t>Natural language description of the questionnaire</t>
-  </si>
-  <si>
-    <t>A free text natural language description of the questionnaire from a consumer's perspective.</t>
-  </si>
-  <si>
-    <t>This description can be used to capture details such as why the questionnaire was built, comments about misuse, instructions for clinical use and interpretation, literature references, examples from the paper world, etc. It is not a rendering of the questionnaire as conveyed in the 'text' field of the resource itself. This item SHOULD be populated unless the information is available from context (e.g. the language of the questionnaire is presumed to be the predominant language in the place the questionnaire was created).</t>
-  </si>
-  <si>
-    <t>Definition.description</t>
-  </si>
-  <si>
-    <t>.text</t>
-  </si>
-  <si>
-    <t>Questionnaire.useContext</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UsageContext
-</t>
-  </si>
-  <si>
-    <t>The context that the content is intended to support</t>
-  </si>
-  <si>
-    <t>The content was developed with a focus and intent of supporting the contexts that are listed. These contexts may be general categories (gender, age, ...) or may be references to specific programs (insurance plans, studies, ...) and may be used to assist with indexing and searching for appropriate questionnaire instances.</t>
-  </si>
-  <si>
-    <t>When multiple useContexts are specified, there is no expectation that all or any of the contexts apply.</t>
-  </si>
-  <si>
-    <t>Assist in searching for appropriate content.</t>
-  </si>
-  <si>
-    <t>Definition.useContext</t>
-  </si>
-  <si>
-    <t>Questionnaire.jurisdiction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Intended jurisdiction for questionnaire (if applicable)</t>
-  </si>
-  <si>
-    <t>A legal or geographic region in which the questionnaire is intended to be used.</t>
-  </si>
-  <si>
-    <t>It may be possible for the questionnaire to be used in jurisdictions other than those for which it was originally designed or intended.</t>
-  </si>
-  <si>
-    <t>Countries and regions within which this artifact is targeted for use.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/jurisdiction</t>
-  </si>
-  <si>
-    <t>Definition.jurisdiction</t>
-  </si>
-  <si>
-    <t>Questionnaire.purpose</t>
-  </si>
-  <si>
-    <t>Why this questionnaire is defined</t>
-  </si>
-  <si>
-    <t>Explanation of why this questionnaire is needed and why it has been designed as it has.</t>
-  </si>
-  <si>
-    <t>This element does not describe the usage of the questionnaire. Instead, it provides traceability of ''why'' the resource is either needed or ''why'' it is defined as it is.  This may be used to point to source materials or specifications that drove the structure of this questionnaire.</t>
-  </si>
-  <si>
-    <t>Definition.purpose</t>
-  </si>
-  <si>
-    <t>.reasonCode.text</t>
-  </si>
-  <si>
-    <t>FiveWs.why[x]</t>
-  </si>
-  <si>
-    <t>Questionnaire.copyright</t>
-  </si>
-  <si>
-    <t>License
-Restrictions</t>
-  </si>
-  <si>
-    <t>Use and/or publishing restrictions</t>
-  </si>
-  <si>
-    <t>A copyright statement relating to the questionnaire and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the questionnaire.</t>
-  </si>
-  <si>
-    <t>Consumers must be able to determine any legal restrictions on the use of the questionnaire and/or its content.</t>
-  </si>
-  <si>
-    <t>Definition.copyright</t>
-  </si>
-  <si>
-    <t>Questionnaire.approvalDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date
-</t>
-  </si>
-  <si>
-    <t>When the questionnaire was approved by publisher</t>
-  </si>
-  <si>
-    <t>The date on which the resource content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
-  </si>
-  <si>
-    <t>The 'date' element may be more recent than the approval date because of minor changes or editorial corrections.</t>
-  </si>
-  <si>
-    <t>Definition.approvalDate</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="SUBJ"].act[classCode=CACT;moodCode=EVN;code="approval"].effectiveTime</t>
-  </si>
-  <si>
-    <t>Questionnaire.lastReviewDate</t>
-  </si>
-  <si>
-    <t>When the questionnaire was last reviewed</t>
-  </si>
-  <si>
-    <t>The date on which the resource content was last reviewed. Review happens periodically after approval but does not change the original approval date.</t>
-  </si>
-  <si>
-    <t>If specified, this date follows the original approval date.</t>
-  </si>
-  <si>
-    <t>Gives a sense of how "current" the content is.  Resources that have not been reviewed in a long time may have a risk of being less appropriate/relevant.</t>
-  </si>
-  <si>
-    <t>Definition.lastReviewDate</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="SUBJ"; subsetCode="RECENT"].act[classCode=CACT;moodCode=EVN;code="review"].effectiveTime</t>
-  </si>
-  <si>
-    <t>Questionnaire.effectivePeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>When the questionnaire is expected to be used</t>
-  </si>
-  <si>
-    <t>The period during which the questionnaire content was or is planned to be in active use.</t>
-  </si>
-  <si>
-    <t>The effective period for a questionnaire  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 might be published in 2015.</t>
-  </si>
-  <si>
-    <t>Allows establishing a transition before a resource comes into effect and also allows for a sunsetting  process when new versions of the questionnaire are or are expected to be used instead.</t>
-  </si>
-  <si>
-    <t>Definition.effectivePeriod</t>
-  </si>
-  <si>
-    <t>Questionnaire.code</t>
-  </si>
-  <si>
-    <t>Concept that represents the overall questionnaire</t>
-  </si>
-  <si>
-    <t>An identifier for this question or group of questions in a particular terminology such as LOINC.</t>
-  </si>
-  <si>
-    <t>Allows linking of the complete Questionnaire resources to formal terminologies.  It's common for "panels" of questions to be identified by a code.</t>
   </si>
   <si>
     <t>Codes for questionnaires, groups and individual questions.</t>
@@ -1146,7 +995,22 @@
     <t>Questionnaire.item.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Questionnaire.item.extension</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Settings</t>
@@ -1318,6 +1182,12 @@
   </si>
   <si>
     <t>Questionnaire.item.enableWhen.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Questionnaire.item.enableWhen.modifierExtension</t>
@@ -1917,7 +1787,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN76"/>
+  <dimension ref="A1:AN68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1949,11 +1819,11 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="86.30859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="59.69140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="45.5390625" customWidth="true" bestFit="true" hidden="true"/>
@@ -2447,21 +2317,23 @@
         <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>77</v>
@@ -2510,7 +2382,7 @@
         <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
@@ -2522,13 +2394,13 @@
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>77</v>
@@ -2542,18 +2414,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
@@ -2600,28 +2472,28 @@
         <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>110</v>
@@ -2630,19 +2502,19 @@
         <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>77</v>
@@ -2656,11 +2528,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2676,7 +2548,7 @@
         <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>113</v>
@@ -2699,46 +2571,46 @@
         <v>77</v>
       </c>
       <c r="R7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>75</v>
@@ -2756,7 +2628,7 @@
         <v>77</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>77</v>
@@ -2774,14 +2646,14 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>77</v>
@@ -2790,19 +2662,19 @@
         <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2813,7 +2685,7 @@
         <v>77</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -2858,19 +2730,19 @@
         <v>75</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>77</v>
@@ -2884,7 +2756,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2895,7 +2767,7 @@
         <v>75</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>77</v>
@@ -2904,20 +2776,18 @@
         <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M9" t="s" s="2">
         <v>130</v>
       </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>77</v>
@@ -2954,31 +2824,29 @@
         <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>77</v>
@@ -2998,9 +2866,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="C10" t="s" s="2">
         <v>77</v>
       </c>
@@ -3009,7 +2879,7 @@
         <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>77</v>
@@ -3018,20 +2888,18 @@
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>77</v>
@@ -3080,7 +2948,7 @@
         <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -3089,10 +2957,10 @@
         <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>77</v>
@@ -3112,11 +2980,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3129,24 +2997,26 @@
         <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O11" t="s" s="2">
         <v>77</v>
       </c>
@@ -3170,13 +3040,13 @@
         <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>77</v>
@@ -3206,13 +3076,13 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>77</v>
@@ -3237,7 +3107,7 @@
         <v>75</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>77</v>
@@ -3249,7 +3119,7 @@
         <v>84</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>148</v>
@@ -3260,7 +3130,9 @@
       <c r="M12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="N12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3284,13 +3156,13 @@
         <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>77</v>
@@ -3308,13 +3180,13 @@
         <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>77</v>
@@ -3323,13 +3195,13 @@
         <v>95</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>77</v>
@@ -3348,7 +3220,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>83</v>
@@ -3357,24 +3229,26 @@
         <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3422,13 +3296,13 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>77</v>
@@ -3437,16 +3311,16 @@
         <v>95</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -3454,7 +3328,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3474,19 +3348,19 @@
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3512,13 +3386,13 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>77</v>
@@ -3536,7 +3410,7 @@
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -3551,13 +3425,13 @@
         <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3568,11 +3442,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3588,10 +3462,10 @@
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>171</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>172</v>
@@ -3602,7 +3476,9 @@
       <c r="M15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="N15" s="2"/>
+      <c r="N15" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3650,7 +3526,7 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -3659,7 +3535,7 @@
         <v>83</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>95</v>
@@ -3668,7 +3544,7 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
@@ -3686,14 +3562,14 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>77</v>
@@ -3702,19 +3578,19 @@
         <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3764,25 +3640,25 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
@@ -3796,7 +3672,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3819,16 +3695,18 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" s="2"/>
+      <c r="N17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3864,17 +3742,19 @@
         <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AB17" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3886,13 +3766,13 @@
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
@@ -3904,34 +3784,32 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>191</v>
@@ -3939,7 +3817,9 @@
       <c r="L18" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M18" s="2"/>
+      <c r="M18" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>77</v>
@@ -3964,13 +3844,13 @@
         <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>77</v>
@@ -3988,28 +3868,28 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -4020,42 +3900,42 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="I19" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>77</v>
@@ -4104,28 +3984,28 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -4136,7 +4016,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4147,7 +4027,7 @@
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>77</v>
@@ -4159,20 +4039,18 @@
         <v>84</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4196,13 +4074,13 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -4220,13 +4098,13 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>77</v>
@@ -4235,13 +4113,13 @@
         <v>95</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -4252,15 +4130,15 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>83</v>
@@ -4275,20 +4153,18 @@
         <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4336,13 +4212,13 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>77</v>
@@ -4351,16 +4227,16 @@
         <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4368,7 +4244,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4394,15 +4270,17 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4450,7 +4328,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4465,13 +4343,13 @@
         <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4482,7 +4360,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4493,7 +4371,7 @@
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>77</v>
@@ -4505,20 +4383,18 @@
         <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>233</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4566,25 +4442,25 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4598,7 +4474,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4618,19 +4494,19 @@
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4680,7 +4556,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4695,10 +4571,10 @@
         <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4712,7 +4588,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4732,20 +4608,22 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="N25" t="s" s="2">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4794,7 +4672,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4809,10 +4687,10 @@
         <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>241</v>
+        <v>169</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4824,9 +4702,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4834,31 +4712,31 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>161</v>
+        <v>254</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4884,13 +4762,13 @@
         <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>77</v>
@@ -4908,13 +4786,13 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>77</v>
@@ -4923,13 +4801,13 @@
         <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>250</v>
+        <v>169</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4940,7 +4818,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4960,23 +4838,21 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
       </c>
@@ -5024,7 +4900,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -5039,16 +4915,16 @@
         <v>95</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>184</v>
+        <v>267</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -5056,18 +4932,18 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>77</v>
@@ -5076,21 +4952,21 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>161</v>
+        <v>240</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5114,13 +4990,13 @@
         <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>77</v>
@@ -5138,13 +5014,13 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>77</v>
@@ -5153,16 +5029,16 @@
         <v>95</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>266</v>
+        <v>169</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5170,11 +5046,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>268</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5190,19 +5066,19 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5252,7 +5128,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -5267,16 +5143,16 @@
         <v>95</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5284,7 +5160,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5304,22 +5180,22 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>276</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5368,7 +5244,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5383,16 +5259,16 @@
         <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5400,7 +5276,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5411,7 +5287,7 @@
         <v>75</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>77</v>
@@ -5423,18 +5299,20 @@
         <v>84</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5482,13 +5360,13 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>77</v>
@@ -5497,16 +5375,16 @@
         <v>95</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>290</v>
+        <v>169</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5514,7 +5392,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5525,7 +5403,7 @@
         <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>77</v>
@@ -5534,21 +5412,21 @@
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5572,13 +5450,13 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
@@ -5596,13 +5474,13 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>77</v>
@@ -5611,10 +5489,10 @@
         <v>95</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5628,7 +5506,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5648,23 +5526,21 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5712,7 +5588,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5721,16 +5597,16 @@
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>95</v>
+        <v>311</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>304</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>221</v>
+        <v>312</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -5744,7 +5620,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5755,7 +5631,7 @@
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -5764,20 +5640,18 @@
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>306</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -5802,13 +5676,13 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>311</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>77</v>
@@ -5826,25 +5700,25 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>312</v>
+        <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>221</v>
+        <v>317</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -5858,7 +5732,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5869,7 +5743,7 @@
         <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>77</v>
@@ -5881,17 +5755,15 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>292</v>
+        <v>128</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>314</v>
+        <v>129</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>77</v>
@@ -5928,55 +5800,55 @@
         <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AB35" s="2"/>
       <c r="AC35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>317</v>
+        <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AL35" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" hidden="true">
-      <c r="A36" t="s" s="2">
+      <c r="B36" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5986,7 +5858,7 @@
         <v>83</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5995,7 +5867,7 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>322</v>
@@ -6004,9 +5876,7 @@
         <v>323</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" t="s" s="2">
-        <v>324</v>
-      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>77</v>
       </c>
@@ -6054,31 +5924,31 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6086,41 +5956,43 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="K37" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>329</v>
-      </c>
       <c r="M37" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>77</v>
       </c>
@@ -6168,31 +6040,31 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>331</v>
+        <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>332</v>
+        <v>126</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6200,7 +6072,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6208,7 +6080,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>83</v>
@@ -6223,19 +6095,19 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>327</v>
+        <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>77</v>
@@ -6284,10 +6156,10 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>83</v>
@@ -6299,24 +6171,24 @@
         <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>338</v>
+        <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6324,34 +6196,34 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>341</v>
+        <v>97</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6400,7 +6272,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6415,16 +6287,16 @@
         <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>221</v>
+        <v>340</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6432,7 +6304,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6452,20 +6324,22 @@
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>139</v>
+        <v>297</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="N40" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6490,13 +6364,13 @@
         <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -6514,7 +6388,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6523,7 +6397,7 @@
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>95</v>
@@ -6532,7 +6406,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6546,18 +6420,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
@@ -6569,18 +6443,20 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>355</v>
+        <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6628,25 +6504,25 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>359</v>
+        <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>360</v>
+        <v>95</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6658,9 +6534,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6668,13 +6544,13 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6686,12 +6562,14 @@
         <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>97</v>
+        <v>354</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>77</v>
@@ -6740,7 +6618,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>99</v>
+        <v>353</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6752,13 +6630,13 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>100</v>
+        <v>245</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6772,7 +6650,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6780,10 +6658,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>77</v>
@@ -6798,13 +6676,17 @@
         <v>103</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>186</v>
+        <v>358</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6828,47 +6710,49 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AB43" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>110</v>
+        <v>357</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>77</v>
+        <v>364</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6880,13 +6764,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6895,19 +6777,19 @@
         <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H44" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H44" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="I44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>365</v>
+        <v>306</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>366</v>
@@ -6915,8 +6797,12 @@
       <c r="L44" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+      <c r="M44" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6964,7 +6850,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>110</v>
+        <v>365</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6973,16 +6859,16 @@
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>111</v>
+        <v>370</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>77</v>
+        <v>364</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6996,43 +6882,39 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>370</v>
+        <v>314</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>77</v>
       </c>
@@ -7080,25 +6962,25 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>372</v>
+        <v>316</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>184</v>
+        <v>317</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7112,18 +6994,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>77</v>
@@ -7135,20 +7017,18 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L46" t="s" s="2">
-        <v>375</v>
-      </c>
       <c r="M46" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7196,25 +7076,25 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>373</v>
+        <v>319</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>378</v>
+        <v>317</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7226,44 +7106,44 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H47" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H47" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="I47" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>380</v>
+        <v>326</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>381</v>
+        <v>327</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>382</v>
+        <v>144</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>383</v>
+        <v>145</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7312,25 +7192,25 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>379</v>
+        <v>328</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>384</v>
+        <v>126</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7344,7 +7224,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7352,10 +7232,10 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>77</v>
@@ -7367,20 +7247,18 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7404,13 +7282,13 @@
         <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>351</v>
+        <v>77</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>352</v>
+        <v>77</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>77</v>
@@ -7428,16 +7306,16 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>359</v>
+        <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>95</v>
@@ -7446,7 +7324,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7460,15 +7338,15 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>391</v>
+        <v>77</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>83</v>
@@ -7483,20 +7361,16 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7520,13 +7394,13 @@
         <v>77</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>77</v>
+        <v>383</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -7544,10 +7418,10 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>83</v>
@@ -7562,7 +7436,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7574,9 +7448,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7590,7 +7464,7 @@
         <v>83</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7599,17 +7473,15 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>85</v>
+        <v>386</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -7634,13 +7506,13 @@
         <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>77</v>
+        <v>390</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7658,16 +7530,16 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>77</v>
+        <v>391</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>95</v>
@@ -7676,7 +7548,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>297</v>
+        <v>364</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7690,7 +7562,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7698,7 +7570,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>83</v>
@@ -7713,20 +7585,18 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7750,13 +7620,13 @@
         <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>246</v>
+        <v>194</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
@@ -7774,16 +7644,16 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>77</v>
+        <v>397</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>95</v>
@@ -7792,7 +7662,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>408</v>
+        <v>364</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7804,9 +7674,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7814,39 +7684,39 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>355</v>
+        <v>201</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="Q52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7890,25 +7760,25 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>414</v>
+        <v>95</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>408</v>
+        <v>364</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7922,7 +7792,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7945,20 +7815,26 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>85</v>
+        <v>201</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>97</v>
+        <v>405</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="Q53" t="s" s="2">
         <v>77</v>
       </c>
@@ -8002,7 +7878,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>99</v>
+        <v>404</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -8011,16 +7887,16 @@
         <v>83</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>100</v>
+        <v>364</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -8034,18 +7910,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
@@ -8057,18 +7933,20 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>104</v>
+        <v>411</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>105</v>
+        <v>412</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8116,25 +7994,25 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>110</v>
+        <v>410</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>77</v>
+        <v>415</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>100</v>
+        <v>364</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8148,43 +8026,41 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>103</v>
+        <v>417</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>370</v>
+        <v>418</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>371</v>
+        <v>419</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8232,25 +8108,25 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>77</v>
+        <v>421</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>184</v>
+        <v>364</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8259,12 +8135,12 @@
         <v>77</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8272,7 +8148,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>83</v>
@@ -8287,16 +8163,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>85</v>
+        <v>423</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8346,16 +8222,16 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>77</v>
+        <v>427</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>95</v>
@@ -8364,7 +8240,7 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>408</v>
+        <v>364</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8378,7 +8254,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8386,10 +8262,10 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>77</v>
@@ -8401,15 +8277,17 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>161</v>
+        <v>306</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>77</v>
@@ -8434,13 +8312,13 @@
         <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>425</v>
+        <v>77</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>426</v>
+        <v>77</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>77</v>
@@ -8458,16 +8336,16 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>77</v>
+        <v>427</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>95</v>
@@ -8476,7 +8354,7 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>408</v>
+        <v>364</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8490,7 +8368,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8498,7 +8376,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>83</v>
@@ -8513,13 +8391,13 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>428</v>
+        <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>429</v>
+        <v>314</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>430</v>
+        <v>315</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8546,13 +8424,13 @@
         <v>77</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>431</v>
+        <v>77</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>432</v>
+        <v>77</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>77</v>
@@ -8570,25 +8448,25 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>427</v>
+        <v>316</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>433</v>
+        <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>408</v>
+        <v>317</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8602,18 +8480,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>77</v>
@@ -8625,16 +8503,16 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>435</v>
+        <v>373</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>436</v>
+        <v>374</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>437</v>
+        <v>144</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8660,13 +8538,13 @@
         <v>77</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>436</v>
+        <v>77</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>438</v>
+        <v>77</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>77</v>
@@ -8684,79 +8562,79 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H60" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H60" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="I60" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>253</v>
+        <v>128</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>441</v>
+        <v>326</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>442</v>
+        <v>327</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P60" t="s" s="2">
-        <v>444</v>
-      </c>
+      <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8800,25 +8678,25 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>440</v>
+        <v>328</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>445</v>
+        <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>408</v>
+        <v>126</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8832,7 +8710,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8840,7 +8718,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>83</v>
@@ -8855,26 +8733,22 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>253</v>
+        <v>436</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P61" t="s" s="2">
-        <v>451</v>
-      </c>
+      <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8894,13 +8768,13 @@
         <v>77</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>77</v>
+        <v>390</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -8918,16 +8792,16 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>445</v>
+        <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>95</v>
@@ -8936,7 +8810,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>408</v>
+        <v>364</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8950,7 +8824,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8973,24 +8847,24 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="Q62" t="s" s="2">
         <v>77</v>
       </c>
@@ -9034,7 +8908,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -9043,7 +8917,7 @@
         <v>83</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>457</v>
+        <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>95</v>
@@ -9052,7 +8926,7 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>408</v>
+        <v>364</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -9066,7 +8940,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9077,7 +8951,7 @@
         <v>75</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>77</v>
@@ -9089,18 +8963,20 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>459</v>
+        <v>306</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9148,16 +9024,16 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>95</v>
@@ -9166,7 +9042,7 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>408</v>
+        <v>364</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9175,12 +9051,12 @@
         <v>77</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>184</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9203,17 +9079,15 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>465</v>
+        <v>85</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>466</v>
+        <v>314</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>77</v>
@@ -9262,7 +9136,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>464</v>
+        <v>316</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -9271,16 +9145,16 @@
         <v>83</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>469</v>
+        <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>408</v>
+        <v>317</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9294,11 +9168,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9317,16 +9191,16 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>355</v>
+        <v>128</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>471</v>
+        <v>373</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>472</v>
+        <v>374</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>473</v>
+        <v>144</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9376,7 +9250,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>470</v>
+        <v>319</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -9385,16 +9259,16 @@
         <v>76</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>469</v>
+        <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>408</v>
+        <v>317</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9408,39 +9282,43 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>97</v>
+        <v>326</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9488,25 +9366,25 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>99</v>
+        <v>328</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9520,18 +9398,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>77</v>
@@ -9543,16 +9421,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>103</v>
+        <v>455</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>104</v>
+        <v>456</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>105</v>
+        <v>457</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>106</v>
+        <v>458</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9578,13 +9456,13 @@
         <v>77</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>77</v>
+        <v>390</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>77</v>
@@ -9602,25 +9480,25 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>110</v>
+        <v>454</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>100</v>
+        <v>364</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9634,11 +9512,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9651,25 +9529,25 @@
         <v>77</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>370</v>
+        <v>460</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>371</v>
+        <v>461</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>106</v>
+        <v>462</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>197</v>
+        <v>463</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -9718,7 +9596,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>372</v>
+        <v>459</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -9727,16 +9605,16 @@
         <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>77</v>
+        <v>464</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>184</v>
+        <v>465</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9745,929 +9623,11 @@
         <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P70" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="Q70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN76" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN76">
+  <autoFilter ref="A1:AN68">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10677,7 +9637,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI75">
+  <conditionalFormatting sqref="A2:AI67">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/master/StructureDefinition-questionnaire-s37.xlsx
+++ b/branches/master/StructureDefinition-questionnaire-s37.xlsx
@@ -6186,7 +6186,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>335</v>
       </c>
@@ -6196,13 +6196,13 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -6534,7 +6534,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
         <v>353</v>
       </c>
@@ -6544,13 +6544,13 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -7674,7 +7674,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
         <v>398</v>
       </c>
@@ -7684,13 +7684,13 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>

--- a/branches/master/StructureDefinition-questionnaire-s37.xlsx
+++ b/branches/master/StructureDefinition-questionnaire-s37.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$71</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2611" uniqueCount="480">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://science37.com/StructureDefinition/questionnaire-s37</t>
+    <t>http://science37.com/fhir/StructureDefinition/questionnaire-s37</t>
   </si>
   <si>
     <t>Version</t>
@@ -440,7 +440,7 @@
     <t>settings</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://science37.com/StructureDefinition/form-settings}
+    <t xml:space="preserve">Extension {http://science37.com/fhir/StructureDefinition/form-settings}
 </t>
   </si>
   <si>
@@ -541,6 +541,9 @@
     <t>There may be different questionnaire instances that have the same identifier but different versions.  The version can be appended to the url in a reference to allow a reference to a particular business version of the questionnaire with the format [url]|[version].</t>
   </si>
   <si>
+    <t>1.0.0A-S37</t>
+  </si>
+  <si>
     <t>Definition.version</t>
   </si>
   <si>
@@ -1016,7 +1019,7 @@
     <t>Settings</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://science37.com/StructureDefinition/item-settings}
+    <t xml:space="preserve">Extension {http://science37.com/fhir/StructureDefinition/item-settings}
 </t>
   </si>
   <si>
@@ -1024,6 +1027,48 @@
   </si>
   <si>
     <t xml:space="preserve">Extension : Questionnaire.item.settings </t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {questionnaire-hidden}
+</t>
+  </si>
+  <si>
+    <t>Don't display to user</t>
+  </si>
+  <si>
+    <t>If true, indicates that the extended item should not be displayed to the user.</t>
+  </si>
+  <si>
+    <t>If an item is hidden, all descendant items are hidden as well.</t>
+  </si>
+  <si>
+    <t>itemControl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {questionnaire-itemControl}
+</t>
+  </si>
+  <si>
+    <t>E.g. Fly-over, Table, Checkbox, Combo-box, Lookup, etc.</t>
+  </si>
+  <si>
+    <t>The type of data entry control or structure that should be used to render the item.</t>
+  </si>
+  <si>
+    <t>Different controls may be appropriate for different item types.  It is up to the system rendering a questionnaire as to what controls it will support and for which data types.</t>
+  </si>
+  <si>
+    <t>observationExtract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://science37.com/fhir/StructureDefinition/observation-Extract}
+</t>
+  </si>
+  <si>
+    <t>Extension : observationExtract</t>
   </si>
   <si>
     <t>Questionnaire.item.modifierExtension</t>
@@ -1787,7 +1832,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN68"/>
+  <dimension ref="A1:AN71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1797,7 +1842,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="49.16796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.44921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3326,7 +3371,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>164</v>
       </c>
@@ -3336,13 +3381,13 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
@@ -3371,7 +3416,7 @@
         <v>77</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>77</v>
@@ -3425,13 +3470,13 @@
         <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3442,7 +3487,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3468,16 +3513,16 @@
         <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>77</v>
@@ -3526,7 +3571,7 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -3535,7 +3580,7 @@
         <v>83</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>95</v>
@@ -3558,7 +3603,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3584,13 +3629,13 @@
         <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3640,7 +3685,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3655,10 +3700,10 @@
         <v>95</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
@@ -3672,7 +3717,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3695,17 +3740,17 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>77</v>
@@ -3754,7 +3799,7 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3769,10 +3814,10 @@
         <v>95</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
@@ -3786,7 +3831,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3812,13 +3857,13 @@
         <v>103</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3844,13 +3889,13 @@
         <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>77</v>
@@ -3868,7 +3913,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>83</v>
@@ -3883,13 +3928,13 @@
         <v>95</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3900,7 +3945,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3923,19 +3968,19 @@
         <v>84</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>77</v>
@@ -3984,7 +4029,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3999,13 +4044,13 @@
         <v>95</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>126</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -4016,7 +4061,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4042,13 +4087,13 @@
         <v>103</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4074,13 +4119,13 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -4098,7 +4143,7 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -4113,10 +4158,10 @@
         <v>95</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -4130,11 +4175,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4153,16 +4198,16 @@
         <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4212,7 +4257,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -4227,13 +4272,13 @@
         <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -4244,7 +4289,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4270,16 +4315,16 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -4328,7 +4373,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4343,13 +4388,13 @@
         <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4360,7 +4405,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4383,16 +4428,16 @@
         <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4442,7 +4487,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4457,10 +4502,10 @@
         <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4474,7 +4519,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4497,16 +4542,16 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4556,7 +4601,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4571,10 +4616,10 @@
         <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4588,7 +4633,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4611,19 +4656,19 @@
         <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4672,7 +4717,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4687,10 +4732,10 @@
         <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4704,7 +4749,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4727,16 +4772,16 @@
         <v>84</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4762,13 +4807,13 @@
         <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>77</v>
@@ -4786,7 +4831,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4801,10 +4846,10 @@
         <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4818,7 +4863,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4841,16 +4886,16 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4900,7 +4945,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4915,13 +4960,13 @@
         <v>95</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>163</v>
@@ -4932,11 +4977,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4955,17 +5000,17 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5014,7 +5059,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -5029,10 +5074,10 @@
         <v>95</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5046,7 +5091,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5069,16 +5114,16 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5128,7 +5173,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -5143,10 +5188,10 @@
         <v>95</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -5160,7 +5205,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5183,19 +5228,19 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5244,7 +5289,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5259,10 +5304,10 @@
         <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -5276,7 +5321,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5299,19 +5344,19 @@
         <v>84</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5360,7 +5405,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5375,10 +5420,10 @@
         <v>95</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -5392,7 +5437,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5415,17 +5460,17 @@
         <v>84</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5450,13 +5495,13 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
@@ -5474,7 +5519,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5492,7 +5537,7 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5506,7 +5551,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5529,16 +5574,16 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5588,7 +5633,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5597,16 +5642,16 @@
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -5620,7 +5665,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5646,10 +5691,10 @@
         <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5700,7 +5745,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5718,7 +5763,7 @@
         <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -5732,7 +5777,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5810,7 +5855,7 @@
         <v>132</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5842,10 +5887,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>77</v>
@@ -5867,13 +5912,13 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5924,7 +5969,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5956,43 +6001,43 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B37" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="C37" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>128</v>
+        <v>326</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>77</v>
       </c>
@@ -6040,7 +6085,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -6049,7 +6094,7 @@
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>134</v>
@@ -6058,7 +6103,7 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6072,15 +6117,17 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="B38" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="C38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>83</v>
@@ -6095,20 +6142,18 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>85</v>
+        <v>331</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6156,25 +6201,25 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>334</v>
+        <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6188,9 +6233,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B39" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6211,20 +6258,16 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>97</v>
+        <v>336</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6272,25 +6315,25 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>340</v>
+        <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6304,11 +6347,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>77</v>
+        <v>339</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6321,25 +6364,25 @@
         <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>297</v>
+        <v>128</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>344</v>
+        <v>144</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>345</v>
+        <v>145</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6364,13 +6407,13 @@
         <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -6388,7 +6431,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6397,16 +6440,16 @@
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>304</v>
+        <v>126</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6420,15 +6463,15 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>347</v>
+        <v>77</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>83</v>
@@ -6446,16 +6489,16 @@
         <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>77</v>
@@ -6504,10 +6547,10 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>83</v>
@@ -6522,7 +6565,7 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6536,7 +6579,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6559,18 +6602,20 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6618,7 +6663,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6636,7 +6681,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>245</v>
+        <v>354</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6650,7 +6695,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6658,10 +6703,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>77</v>
@@ -6673,19 +6718,19 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>103</v>
+        <v>298</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>77</v>
@@ -6710,13 +6755,13 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>194</v>
+        <v>302</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>362</v>
+        <v>303</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>363</v>
+        <v>304</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
@@ -6734,16 +6779,16 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>95</v>
@@ -6752,7 +6797,7 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>364</v>
+        <v>305</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6766,42 +6811,42 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>77</v>
+        <v>361</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>306</v>
+        <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -6850,25 +6895,25 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>370</v>
+        <v>95</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6882,7 +6927,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6908,12 +6953,14 @@
         <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>314</v>
+        <v>368</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -6962,7 +7009,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>316</v>
+        <v>367</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6974,13 +7021,13 @@
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>317</v>
+        <v>246</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -6994,18 +7041,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>77</v>
@@ -7017,18 +7064,20 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7052,13 +7101,13 @@
         <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>77</v>
+        <v>376</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>77</v>
@@ -7076,25 +7125,25 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>319</v>
+        <v>371</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>317</v>
+        <v>378</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7108,11 +7157,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7128,22 +7177,22 @@
         <v>84</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>128</v>
+        <v>307</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>327</v>
+        <v>381</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>144</v>
+        <v>382</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>145</v>
+        <v>383</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7192,7 +7241,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>328</v>
+        <v>379</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -7204,13 +7253,13 @@
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>134</v>
+        <v>384</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>126</v>
+        <v>378</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7224,7 +7273,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7232,7 +7281,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>83</v>
@@ -7250,14 +7299,12 @@
         <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>377</v>
+        <v>315</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -7306,10 +7353,10 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>376</v>
+        <v>317</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>83</v>
@@ -7318,13 +7365,13 @@
         <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7338,18 +7385,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>77</v>
@@ -7361,15 +7408,17 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>77</v>
@@ -7394,13 +7443,13 @@
         <v>77</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>383</v>
+        <v>77</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>384</v>
+        <v>77</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -7418,25 +7467,25 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7450,39 +7499,43 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>77</v>
+        <v>339</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>386</v>
+        <v>128</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>387</v>
+        <v>340</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7506,13 +7559,13 @@
         <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7530,25 +7583,25 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>391</v>
+        <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>364</v>
+        <v>126</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7562,7 +7615,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7570,7 +7623,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>83</v>
@@ -7585,16 +7638,16 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7620,13 +7673,13 @@
         <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>394</v>
+        <v>77</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>396</v>
+        <v>77</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
@@ -7644,16 +7697,16 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>397</v>
+        <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>95</v>
@@ -7662,7 +7715,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7676,7 +7729,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7684,7 +7737,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>83</v>
@@ -7699,24 +7752,20 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P52" t="s" s="2">
-        <v>402</v>
-      </c>
+      <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7736,13 +7785,13 @@
         <v>77</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>77</v>
+        <v>397</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>77</v>
+        <v>398</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>77</v>
@@ -7760,16 +7809,16 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>403</v>
+        <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>95</v>
@@ -7778,7 +7827,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7792,7 +7841,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7800,7 +7849,7 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>83</v>
@@ -7815,79 +7864,73 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>201</v>
+        <v>400</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH53" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P53" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="Q53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>95</v>
@@ -7896,7 +7939,7 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -7910,7 +7953,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7933,20 +7976,18 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7970,13 +8011,13 @@
         <v>77</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>77</v>
+        <v>408</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>77</v>
+        <v>410</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>77</v>
@@ -7994,7 +8035,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -8003,7 +8044,7 @@
         <v>83</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>95</v>
@@ -8012,7 +8053,7 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8026,7 +8067,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8049,22 +8090,24 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>417</v>
+        <v>202</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="Q55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8108,7 +8151,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -8117,7 +8160,7 @@
         <v>83</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>95</v>
@@ -8126,7 +8169,7 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8135,12 +8178,12 @@
         <v>77</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8163,22 +8206,26 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P56" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="K56" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8222,7 +8269,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -8231,7 +8278,7 @@
         <v>83</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>95</v>
@@ -8240,7 +8287,7 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8254,7 +8301,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8265,7 +8312,7 @@
         <v>75</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>77</v>
@@ -8277,18 +8324,20 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>306</v>
+        <v>202</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8336,16 +8385,16 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>95</v>
@@ -8354,7 +8403,7 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8368,7 +8417,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8391,15 +8440,17 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>85</v>
+        <v>431</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>314</v>
+        <v>432</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>77</v>
@@ -8448,7 +8499,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>316</v>
+        <v>430</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8457,16 +8508,16 @@
         <v>83</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>77</v>
+        <v>435</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>317</v>
+        <v>378</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8475,23 +8526,23 @@
         <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>77</v>
@@ -8503,16 +8554,16 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>128</v>
+        <v>437</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>373</v>
+        <v>438</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>374</v>
+        <v>439</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>144</v>
+        <v>440</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8562,25 +8613,25 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>319</v>
+        <v>436</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>77</v>
+        <v>441</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>317</v>
+        <v>378</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8594,11 +8645,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8611,26 +8662,24 @@
         <v>77</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>128</v>
+        <v>307</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>326</v>
+        <v>443</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>327</v>
+        <v>444</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8678,7 +8727,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>328</v>
+        <v>442</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8687,16 +8736,16 @@
         <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>77</v>
+        <v>441</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>126</v>
+        <v>378</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8710,7 +8759,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8718,7 +8767,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>83</v>
@@ -8733,17 +8782,15 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>436</v>
+        <v>85</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>437</v>
+        <v>315</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>77</v>
@@ -8768,13 +8815,13 @@
         <v>77</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -8792,10 +8839,10 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>435</v>
+        <v>317</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>83</v>
@@ -8804,13 +8851,13 @@
         <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8824,18 +8871,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>77</v>
@@ -8847,24 +8894,22 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>441</v>
+        <v>387</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>442</v>
+        <v>388</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>443</v>
+        <v>144</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P62" t="s" s="2">
-        <v>444</v>
-      </c>
+      <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
         <v>77</v>
       </c>
@@ -8908,25 +8953,25 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -8940,11 +8985,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>77</v>
+        <v>339</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8957,25 +9002,25 @@
         <v>77</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>306</v>
+        <v>128</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>446</v>
+        <v>340</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>447</v>
+        <v>341</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>448</v>
+        <v>144</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>449</v>
+        <v>145</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>77</v>
@@ -9024,7 +9069,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>445</v>
+        <v>342</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -9033,16 +9078,16 @@
         <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>450</v>
+        <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>364</v>
+        <v>126</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9056,7 +9101,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9064,7 +9109,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>83</v>
@@ -9079,15 +9124,17 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>85</v>
+        <v>450</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>314</v>
+        <v>451</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>77</v>
@@ -9112,13 +9159,13 @@
         <v>77</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>77</v>
@@ -9136,10 +9183,10 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>316</v>
+        <v>449</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>83</v>
@@ -9148,13 +9195,13 @@
         <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>317</v>
+        <v>378</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9168,18 +9215,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>77</v>
@@ -9191,22 +9238,24 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>128</v>
+        <v>202</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>144</v>
+        <v>457</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="Q65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9250,25 +9299,25 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>319</v>
+        <v>454</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>317</v>
+        <v>378</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9282,11 +9331,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9299,25 +9348,25 @@
         <v>77</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>128</v>
+        <v>307</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>326</v>
+        <v>460</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>327</v>
+        <v>461</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>144</v>
+        <v>462</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>145</v>
+        <v>463</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
@@ -9366,7 +9415,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>328</v>
+        <v>459</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -9375,16 +9424,16 @@
         <v>76</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>77</v>
+        <v>464</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>126</v>
+        <v>378</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9398,7 +9447,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9406,7 +9455,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>83</v>
@@ -9421,17 +9470,15 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>455</v>
+        <v>85</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>456</v>
+        <v>315</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -9456,13 +9503,13 @@
         <v>77</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>77</v>
@@ -9480,10 +9527,10 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>454</v>
+        <v>317</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>83</v>
@@ -9492,13 +9539,13 @@
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9512,11 +9559,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9535,20 +9582,18 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>460</v>
+        <v>387</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>461</v>
+        <v>388</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9596,7 +9641,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>459</v>
+        <v>320</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -9605,29 +9650,375 @@
         <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>464</v>
+        <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI70" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN68" t="s" s="2">
+      <c r="AJ70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN68">
+  <autoFilter ref="A1:AN71">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9637,7 +10028,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI67">
+  <conditionalFormatting sqref="A2:AI70">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
